--- a/biology/Botanique/Celastrales/Celastrales.xlsx
+++ b/biology/Botanique/Celastrales/Celastrales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Celastrales sont un ordre de plantes dicotylédones.
-En classification classique de Cronquist (1981)[1] il comprenait onze familles :
+En classification classique de Cronquist (1981) il comprenait onze familles :
 Aextoxicacées
 Aquifoliacées (famille du houx).
 Cardioptéridacées
@@ -495,14 +507,14 @@
 Icacinacées
 Salvadoracées
 Stackhousiacées
-En classification phylogénétique APG (1998)[2] cet ordre n'existe pas.
-Mais en classification phylogénétique APG II (2003)[3] cet ordre est accepté et il est composé des familles :
+En classification phylogénétique APG (1998) cet ordre n'existe pas.
+Mais en classification phylogénétique APG II (2003) cet ordre est accepté et il est composé des familles :
 Celastraceae (incl. Hippocrateaceae )
 Lepidobotryaceae
 Parnassiaceae
 [+ famille Lepuropetalaceae ]
 N.B. La famille en "[+ ....]" est optionnelle
-En classification phylogénétique APG III (2009)[4] il comprend les familles :
+En classification phylogénétique APG III (2009) il comprend les familles :
 Celastraceae R.Br. (1814) (incluant Lepuropetalaceae Nakai, Parnassiaceae Martinov, Pottingeriaceae Takht.)
 Lepidobotryaceae J.Léonard (1950)
 </t>
